--- a/spliced/walkingToRunning/2023-03-24_09-58-57/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_09-58-57/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.538713003965031</v>
+        <v>4.275845370836725</v>
       </c>
       <c r="D2" t="n">
-        <v>-4.413025014352484</v>
+        <v>-5.77583529645165</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.56981251863826</v>
+        <v>-10.19375841409568</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9080048203468324</v>
+        <v>-1.123454570770264</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2965430021286011</v>
+        <v>-0.7644603848457336</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.026315689086914</v>
+        <v>2.25576400756836</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5.13686267801581</v>
+        <v>0.6221833005047384</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.425703170315554</v>
+        <v>-4.507310633691367</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.380249628284613</v>
+        <v>-10.29080534301348</v>
       </c>
       <c r="F3" t="n">
-        <v>1.053946018218994</v>
+        <v>-0.0118510667234659</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.640923738479614</v>
+        <v>1.250487327575684</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.695018470287323</v>
+        <v>2.492785453796387</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.59200528484063</v>
+        <v>2.215511573241061</v>
       </c>
       <c r="D4" t="n">
-        <v>-12.57661691448033</v>
+        <v>-1.993124782639061</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.450088987414464</v>
+        <v>-10.44278157637424</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.089898705482483</v>
+        <v>-1.767406940460205</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.8981510996818542</v>
+        <v>1.107741832733154</v>
       </c>
       <c r="H4" t="n">
-        <v>0.530035674571991</v>
+        <v>2.145509243011475</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.275845370836725</v>
+        <v>4.329553655330059</v>
       </c>
       <c r="D5" t="n">
-        <v>-5.77583529645165</v>
+        <v>1.845118298626538</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.19375841409568</v>
+        <v>-8.935318364392899</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.123454570770264</v>
+        <v>-0.9109342694282532</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.7644603848457336</v>
+        <v>0.1809618026018142</v>
       </c>
       <c r="H5" t="n">
-        <v>2.25576400756836</v>
+        <v>1.575592756271362</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6221833005047384</v>
+        <v>12.96200734976949</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.507310633691367</v>
+        <v>-5.231297192157526</v>
       </c>
       <c r="E6" t="n">
-        <v>-10.29080534301348</v>
+        <v>0.7199282710183832</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0118510667234659</v>
+        <v>-1.000949144363403</v>
       </c>
       <c r="G6" t="n">
-        <v>1.250487327575684</v>
+        <v>0.0653806030750274</v>
       </c>
       <c r="H6" t="n">
-        <v>2.492785453796387</v>
+        <v>1.502622127532959</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2.215511573241061</v>
+        <v>-2.641056214403002</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.993124782639061</v>
+        <v>-7.670066910302078</v>
       </c>
       <c r="E7" t="n">
-        <v>-10.44278157637424</v>
+        <v>-6.659932584570555</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.767406940460205</v>
+        <v>-1.359943270683289</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107741832733154</v>
+        <v>2.480335235595703</v>
       </c>
       <c r="H7" t="n">
-        <v>2.145509243011475</v>
+        <v>-0.1879525929689407</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4.329553655330059</v>
+        <v>-10.01989353103133</v>
       </c>
       <c r="D8" t="n">
-        <v>1.845118298626538</v>
+        <v>-5.894216838299037</v>
       </c>
       <c r="E8" t="n">
-        <v>-8.935318364392899</v>
+        <v>-4.208720184812602</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.9109342694282532</v>
+        <v>1.629188776016235</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1809618026018142</v>
+        <v>-4.939764499664307</v>
       </c>
       <c r="H8" t="n">
-        <v>1.575592756271362</v>
+        <v>-3.872169733047485</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>12.96200734976949</v>
+        <v>18.6824656044877</v>
       </c>
       <c r="D9" t="n">
-        <v>-5.231297192157526</v>
+        <v>-5.135815050777897</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7199282710183832</v>
+        <v>-8.585992000246984</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.000949144363403</v>
+        <v>4.826047420501709</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0653806030750274</v>
+        <v>0.760465681552887</v>
       </c>
       <c r="H9" t="n">
-        <v>1.502622127532959</v>
+        <v>-4.821853160858154</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-2.641056214403002</v>
+        <v>20.39061579608261</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.670066910302078</v>
+        <v>-16.68983828461418</v>
       </c>
       <c r="E10" t="n">
-        <v>-6.659932584570555</v>
+        <v>-10.62651905597464</v>
       </c>
       <c r="F10" t="n">
-        <v>-1.359943270683289</v>
+        <v>4.102732658386231</v>
       </c>
       <c r="G10" t="n">
-        <v>2.480335235595703</v>
+        <v>-0.6872287392616272</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.1879525929689407</v>
+        <v>-7.78328800201416</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-10.01989353103133</v>
+        <v>37.93301056535422</v>
       </c>
       <c r="D11" t="n">
-        <v>-5.894216838299037</v>
+        <v>-4.661358194863217</v>
       </c>
       <c r="E11" t="n">
-        <v>-4.208720184812602</v>
+        <v>-0.6969916964537886</v>
       </c>
       <c r="F11" t="n">
-        <v>1.629188776016235</v>
+        <v>-5.43937349319458</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.939764499664307</v>
+        <v>-1.829724907875061</v>
       </c>
       <c r="H11" t="n">
-        <v>-3.872169733047485</v>
+        <v>0.9886320233345032</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.6824656044877</v>
+        <v>2.130085897125618</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.135815050777897</v>
+        <v>-8.977323400894459</v>
       </c>
       <c r="E12" t="n">
-        <v>-8.585992000246984</v>
+        <v>-5.93280473491486</v>
       </c>
       <c r="F12" t="n">
-        <v>4.826047420501709</v>
+        <v>-8.410395622253418</v>
       </c>
       <c r="G12" t="n">
-        <v>0.760465681552887</v>
+        <v>0.938364803791046</v>
       </c>
       <c r="H12" t="n">
-        <v>-4.821853160858154</v>
+        <v>10.93873500823975</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>20.39061579608261</v>
+        <v>-2.945472493267677</v>
       </c>
       <c r="D13" t="n">
-        <v>-16.68983828461418</v>
+        <v>-38.83042448959086</v>
       </c>
       <c r="E13" t="n">
-        <v>-10.62651905597464</v>
+        <v>-2.776809974004806</v>
       </c>
       <c r="F13" t="n">
-        <v>4.102732658386231</v>
+        <v>3.432681560516357</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.6872287392616272</v>
+        <v>8.507601737976074</v>
       </c>
       <c r="H13" t="n">
-        <v>-7.78328800201416</v>
+        <v>-2.705705165863037</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>37.93301056535422</v>
+        <v>4.761968791884873</v>
       </c>
       <c r="D14" t="n">
-        <v>-4.661358194863217</v>
+        <v>-2.450371867058256</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.6969916964537886</v>
+        <v>-21.97076380172833</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.43937349319458</v>
+        <v>3.892343282699585</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.829724907875061</v>
+        <v>-3.907523155212401</v>
       </c>
       <c r="H14" t="n">
-        <v>0.9886320233345032</v>
+        <v>0.7548064589500427</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2.130085897125618</v>
+        <v>-8.868669970723605</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.977323400894459</v>
+        <v>-16.28519311687272</v>
       </c>
       <c r="E15" t="n">
-        <v>-5.93280473491486</v>
+        <v>-8.666557632036744</v>
       </c>
       <c r="F15" t="n">
-        <v>-8.410395622253418</v>
+        <v>10.68500232696533</v>
       </c>
       <c r="G15" t="n">
-        <v>0.938364803791046</v>
+        <v>-2.491254091262817</v>
       </c>
       <c r="H15" t="n">
-        <v>10.93873500823975</v>
+        <v>0.1119193434715271</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.945472493267677</v>
+        <v>-7.487835359253294</v>
       </c>
       <c r="D16" t="n">
-        <v>-38.83042448959086</v>
+        <v>-63.21479523581927</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.776809974004806</v>
+        <v>15.10544187110538</v>
       </c>
       <c r="F16" t="n">
-        <v>3.432681560516357</v>
+        <v>-0.7697867155075073</v>
       </c>
       <c r="G16" t="n">
-        <v>8.507601737976074</v>
+        <v>1.647830963134766</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.705705165863037</v>
+        <v>1.185173273086548</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.761968791884873</v>
+        <v>6.800529531184445</v>
       </c>
       <c r="D17" t="n">
-        <v>-2.450371867058256</v>
+        <v>-1.221064970797376</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.97076380172833</v>
+        <v>2.408111162633729</v>
       </c>
       <c r="F17" t="n">
-        <v>3.892343282699585</v>
+        <v>-3.376488924026489</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.907523155212401</v>
+        <v>1.38897168636322</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7548064589500427</v>
+        <v>1.326853513717651</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-8.868669970723605</v>
+        <v>-10.6902578213072</v>
       </c>
       <c r="D18" t="n">
-        <v>-16.28519311687272</v>
+        <v>-37.54249508748885</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.666557632036744</v>
+        <v>29.03655345327873</v>
       </c>
       <c r="F18" t="n">
-        <v>10.68500232696533</v>
+        <v>-4.735766410827637</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.491254091262817</v>
+        <v>-0.1961418241262436</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1119193434715271</v>
+        <v>-5.656487464904785</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-7.487835359253294</v>
+        <v>-28.48631326624204</v>
       </c>
       <c r="D19" t="n">
-        <v>-63.21479523581927</v>
+        <v>16.53431056169849</v>
       </c>
       <c r="E19" t="n">
-        <v>15.10544187110538</v>
+        <v>-18.38939690429892</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.7697867155075073</v>
+        <v>-2.693654298782349</v>
       </c>
       <c r="G19" t="n">
-        <v>1.647830963134766</v>
+        <v>12.81020450592041</v>
       </c>
       <c r="H19" t="n">
-        <v>1.185173273086548</v>
+        <v>-6.878878593444824</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.800529531184445</v>
+        <v>-6.227460877207299</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.221064970797376</v>
+        <v>-5.338711252148522</v>
       </c>
       <c r="E20" t="n">
-        <v>2.408111162633729</v>
+        <v>-15.25327578487011</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.376488924026489</v>
+        <v>4.974119186401367</v>
       </c>
       <c r="G20" t="n">
-        <v>1.38897168636322</v>
+        <v>-6.053498268127441</v>
       </c>
       <c r="H20" t="n">
-        <v>1.326853513717651</v>
+        <v>-4.147007942199707</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-10.6902578213072</v>
+        <v>-2.195728558021952</v>
       </c>
       <c r="D21" t="n">
-        <v>-37.54249508748885</v>
+        <v>-9.250842510453845</v>
       </c>
       <c r="E21" t="n">
-        <v>29.03655345327873</v>
+        <v>-7.278287349931375</v>
       </c>
       <c r="F21" t="n">
-        <v>-4.735766410827637</v>
+        <v>-2.26168966293335</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1961418241262436</v>
+        <v>-17.45715522766113</v>
       </c>
       <c r="H21" t="n">
-        <v>-5.656487464904785</v>
+        <v>0.2626542747020721</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>22.6993431820965</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9.916446260157828</v>
+      </c>
+      <c r="E22" t="n">
+        <v>8.042439793580312</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.576191902160644</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.079262971878052</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.673064351081848</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>10.05702973692206</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.430093637248776</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.092578779130952</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-10.3257417678833</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.127981901168823</v>
+      </c>
+      <c r="H23" t="n">
+        <v>5.69497013092041</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-17.00681210844283</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-24.96814476563599</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-13.94656551924312</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.999719619750977</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-9.156081199645996</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-6.504971027374268</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>33.74133814101275</v>
+      </c>
+      <c r="D25" t="n">
+        <v>5.435616121996308</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-12.86083946612057</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.670201539993286</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-8.627177238464355</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0325571447610855</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-5.288869998599139</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-18.46977404460015</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-9.24161248559119</v>
+      </c>
+      <c r="F26" t="n">
+        <v>7.071092128753662</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.176451444625854</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-1.140298962593079</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-25.29642678267203</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-20.23905866738133</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10.65897996633644</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-2.711231231689453</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-4.331498622894287</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.348158717155456</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3.936601254763914</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18.79409311281742</v>
+      </c>
+      <c r="E28" t="n">
+        <v>10.11689840227166</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-5.673731803894043</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.553022384643555</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.025134325027466</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-36.19211913115269</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-74.38502144013573</v>
+      </c>
+      <c r="E29" t="n">
+        <v>47.36963078799701</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-3.546931266784668</v>
+      </c>
+      <c r="G29" t="n">
+        <v>9.443968772888184</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.7339006066322327</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-34.86098349654431</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-1.257336098075001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-17.16005880880736</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.6049370765686035</v>
+      </c>
+      <c r="G30" t="n">
+        <v>8.170445442199707</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-6.977948188781738</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-23.05234499425689</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-7.394026237846306</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-17.08371260982228</v>
+      </c>
+      <c r="F31" t="n">
+        <v>4.74082612991333</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-5.404219627380371</v>
+      </c>
+      <c r="H31" t="n">
+        <v>-7.638944625854492</v>
       </c>
     </row>
   </sheetData>
